--- a/sharedata/exceldata/excel/all/J-奖励表.xlsx
+++ b/sharedata/exceldata/excel/all/J-奖励表.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5235" uniqueCount="2637">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5235" uniqueCount="2639">
   <si>
     <t>各表格掉落引用的名称</t>
   </si>
@@ -8722,6 +8722,79 @@
       </rPr>
       <t>//6//6//6//6</t>
     </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>//</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>//</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>//</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3//3//3//3</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -10063,8 +10136,8 @@
   <dimension ref="A1:G1109"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A1037" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1047" sqref="E1047"/>
+      <pane ySplit="6" topLeftCell="A1052" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E1060" sqref="E1060"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -25317,10 +25390,10 @@
         <v>1607</v>
       </c>
       <c r="D1058" s="2" t="s">
-        <v>2545</v>
+        <v>2622</v>
       </c>
       <c r="E1058" s="2" t="s">
-        <v>2546</v>
+        <v>2638</v>
       </c>
       <c r="F1058" s="21" t="b">
         <v>1</v>
@@ -25359,7 +25432,7 @@
         <v>2602</v>
       </c>
       <c r="D1060" s="2" t="s">
-        <v>2622</v>
+        <v>2545</v>
       </c>
       <c r="E1060" s="2" t="s">
         <v>2623</v>
@@ -25550,8 +25623,8 @@
       <c r="D1069" s="21" t="s">
         <v>1609</v>
       </c>
-      <c r="E1069" s="21" t="s">
-        <v>1610</v>
+      <c r="E1069" s="2" t="s">
+        <v>2637</v>
       </c>
       <c r="F1069" s="21" t="b">
         <v>0</v>
@@ -25713,8 +25786,8 @@
       <c r="D1077" s="21" t="s">
         <v>1609</v>
       </c>
-      <c r="E1077" s="21" t="s">
-        <v>1610</v>
+      <c r="E1077" s="2" t="s">
+        <v>2637</v>
       </c>
       <c r="F1077" s="21" t="b">
         <v>0</v>
@@ -25873,8 +25946,8 @@
       <c r="D1085" s="21" t="s">
         <v>1609</v>
       </c>
-      <c r="E1085" s="21" t="s">
-        <v>1610</v>
+      <c r="E1085" s="2" t="s">
+        <v>2637</v>
       </c>
       <c r="F1085" s="21" t="b">
         <v>0</v>
@@ -26033,8 +26106,8 @@
       <c r="D1093" s="21" t="s">
         <v>1609</v>
       </c>
-      <c r="E1093" s="21" t="s">
-        <v>1610</v>
+      <c r="E1093" s="2" t="s">
+        <v>2637</v>
       </c>
       <c r="F1093" s="21" t="b">
         <v>0</v>
@@ -26193,8 +26266,8 @@
       <c r="D1101" s="21" t="s">
         <v>1609</v>
       </c>
-      <c r="E1101" s="21" t="s">
-        <v>1610</v>
+      <c r="E1101" s="2" t="s">
+        <v>2637</v>
       </c>
       <c r="F1101" s="21" t="b">
         <v>0</v>
